--- a/kursovayaOP/databases/catalog.xlsx
+++ b/kursovayaOP/databases/catalog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\PycharmProjects\kursovayaOP\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosty\Documents\Modules-for-online-shop\kursovayaOP\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734109D8-9F4C-416D-98EA-2CBF68E90D8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBBF9A3-CA31-4DF4-B1B4-F0EB9CE6AC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="1104" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="-14310" windowWidth="24735" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +525,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
